--- a/Jia Wei & Zoe/yeticycles_med_combined.xlsx
+++ b/Jia Wei & Zoe/yeticycles_med_combined.xlsx
@@ -5,40 +5,82 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Repositories\IS434\IS434-GRP8\Jia Wei &amp; Zoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EC1959-2B48-40F6-9939-B3DBC3839333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C156DA3-805E-4038-9D8F-2E0636731D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Human Or People</t>
   </si>
   <si>
     <t>Likes</t>
   </si>
+  <si>
+    <t xml:space="preserve">Total Images : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Images With Human : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Likes With Human : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Number of Likes With Human : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Images Without Human : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Likes Without Human : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Number of Likes Without Human : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Number of Likes : </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,13 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,19 +399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16385"/>
+  <dimension ref="A1:D16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -374,15 +421,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>5628</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f>COUNT(B:B)</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5334</v>
       </c>
@@ -390,31 +444,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5063</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <f>COUNTIF(B:B,"=1")</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>6101</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUMIF(B:B,"=1",A:A)</f>
+        <v>2458671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6360</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D5/D4</f>
+        <v>6736.084931506849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6842</v>
       </c>
@@ -422,31 +497,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4819</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <f>COUNTIF(B:B,"=0")</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4919</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUMIF(B:B,"=0",A:A)</f>
+        <v>4416845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8029</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <f>D9/D8</f>
+        <v>12100.945205479453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5669</v>
       </c>
@@ -454,15 +550,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>5297</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <f>AVERAGE(A2:A731)</f>
+        <v>9418.5150684931505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>7503</v>
       </c>
@@ -470,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9064</v>
       </c>
@@ -478,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4811</v>
       </c>
@@ -486,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5020</v>
       </c>

--- a/Jia Wei & Zoe/yeticycles_med_combined.xlsx
+++ b/Jia Wei & Zoe/yeticycles_med_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Repositories\IS434\IS434-GRP8\Jia Wei &amp; Zoe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C156DA3-805E-4038-9D8F-2E0636731D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84203522-BF70-4135-B991-C0879DA89D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Human Or People</t>
   </si>
@@ -66,12 +66,18 @@
   <si>
     <t xml:space="preserve">Average Number of Likes : </t>
   </si>
+  <si>
+    <t>% of Human Images :</t>
+  </si>
+  <si>
+    <t>% of Non-Human Images :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +87,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,10 +118,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,9 +133,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,6 +517,13 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <f>(D4/D2)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -504,13 +532,6 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <f>COUNTIF(B:B,"=0")</f>
-        <v>365</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -520,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <f>SUMIF(B:B,"=0",A:A)</f>
-        <v>4416845</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <f>COUNTIF(B:B,"=0")</f>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,11 +556,11 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <f>D9/D8</f>
-        <v>12100.945205479453</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUMIF(B:B,"=0",A:A)</f>
+        <v>4416845</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,6 +570,13 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <f>D10/D9</f>
+        <v>12100.945205479453</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -557,12 +585,12 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <f>AVERAGE(A2:A731)</f>
-        <v>9418.5150684931505</v>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5">
+        <f>D9/D2</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,6 +607,13 @@
       </c>
       <c r="B14" s="1">
         <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <f>AVERAGE(A2:A731)</f>
+        <v>9418.5150684931505</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
